--- a/stage_1/Charts_Visualization_Basics/Charts_visualization_basics.xlsx
+++ b/stage_1/Charts_Visualization_Basics/Charts_visualization_basics.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26327"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC\Desktop\Excel-from-scratch\stage_1\Charts_Visualization_Basics\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10151F5C-146C-4E02-A528-0474FE8CBCDD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -18,10 +24,86 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="21">
+  <si>
+    <t>Employee Name</t>
+  </si>
+  <si>
+    <t>Department</t>
+  </si>
+  <si>
+    <t>Sales</t>
+  </si>
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>Kemi Adetola</t>
+  </si>
+  <si>
+    <t>HR</t>
+  </si>
+  <si>
+    <t>David Okoro</t>
+  </si>
+  <si>
+    <t>IT</t>
+  </si>
+  <si>
+    <t>Sarah Johnson</t>
+  </si>
+  <si>
+    <t>Finance</t>
+  </si>
+  <si>
+    <t>Michael Smith</t>
+  </si>
+  <si>
+    <t>Marketing</t>
+  </si>
+  <si>
+    <t>Aisha Bello</t>
+  </si>
+  <si>
+    <t>Peter Zhang</t>
+  </si>
+  <si>
+    <t>Operations</t>
+  </si>
+  <si>
+    <t>Maria Gonzalez</t>
+  </si>
+  <si>
+    <t>Customer Care</t>
+  </si>
+  <si>
+    <t>Ahmed Musa</t>
+  </si>
+  <si>
+    <t>Linda Brown</t>
+  </si>
+  <si>
+    <t>John Carter</t>
+  </si>
+  <si>
+    <t>Salary (NGN)</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -49,8 +131,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -330,13 +416,210 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:E11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H6" sqref="H6"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="14.453125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.26953125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.36328125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.36328125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2">
+        <v>110000</v>
+      </c>
+      <c r="D2">
+        <v>15</v>
+      </c>
+      <c r="E2" s="1">
+        <v>44941</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3">
+        <v>140000</v>
+      </c>
+      <c r="D3">
+        <v>22</v>
+      </c>
+      <c r="E3" s="1">
+        <v>44946</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4">
+        <v>175000</v>
+      </c>
+      <c r="D4">
+        <v>18</v>
+      </c>
+      <c r="E4" s="1">
+        <v>44967</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5">
+        <v>125000</v>
+      </c>
+      <c r="D5">
+        <v>25</v>
+      </c>
+      <c r="E5" s="1">
+        <v>44972</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" t="s">
+        <v>2</v>
+      </c>
+      <c r="C6">
+        <v>160000</v>
+      </c>
+      <c r="D6">
+        <v>30</v>
+      </c>
+      <c r="E6" s="1">
+        <v>44986</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7">
+        <v>135000</v>
+      </c>
+      <c r="D7">
+        <v>20</v>
+      </c>
+      <c r="E7" s="1">
+        <v>44997</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>15</v>
+      </c>
+      <c r="B8" t="s">
+        <v>16</v>
+      </c>
+      <c r="C8">
+        <v>120000</v>
+      </c>
+      <c r="D8">
+        <v>16</v>
+      </c>
+      <c r="E8" s="1">
+        <v>45017</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>17</v>
+      </c>
+      <c r="B9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9">
+        <v>150000</v>
+      </c>
+      <c r="D9">
+        <v>28</v>
+      </c>
+      <c r="E9" s="1">
+        <v>45034</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>18</v>
+      </c>
+      <c r="B10" t="s">
+        <v>5</v>
+      </c>
+      <c r="C10">
+        <v>130000</v>
+      </c>
+      <c r="D10">
+        <v>24</v>
+      </c>
+      <c r="E10" s="1">
+        <v>45048</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>19</v>
+      </c>
+      <c r="B11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11">
+        <v>180000</v>
+      </c>
+      <c r="D11">
+        <v>32</v>
+      </c>
+      <c r="E11" s="1">
+        <v>45061</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/stage_1/Charts_Visualization_Basics/Charts_visualization_basics.xlsx
+++ b/stage_1/Charts_Visualization_Basics/Charts_visualization_basics.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC\Desktop\Excel-from-scratch\stage_1\Charts_Visualization_Basics\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10151F5C-146C-4E02-A528-0474FE8CBCDD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F663A14-DDE2-48A1-8850-ACC06B9F19F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Data" sheetId="1" r:id="rId1"/>
+    <sheet name="Charts" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -154,6 +155,1838 @@
 </styleSheet>
 </file>
 
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Sales</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> by Employee</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Data!$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Sales</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Data!$A$2:$A$11</c:f>
+              <c:strCache>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>Kemi Adetola</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>David Okoro</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Sarah Johnson</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Michael Smith</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Aisha Bello</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Peter Zhang</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Maria Gonzalez</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Ahmed Musa</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Linda Brown</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>John Carter</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Data!$D$2:$D$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>32</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-E370-47D7-8539-41164CBF0A38}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="1549585791"/>
+        <c:axId val="1549588671"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1549585791"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1549588671"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1549588671"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1549585791"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Data!$E$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Date</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Data!$E$2:$E$11</c:f>
+              <c:numCache>
+                <c:formatCode>m/d/yyyy</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>44941</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>44946</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>44967</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>44972</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>44986</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>44997</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>45017</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>45034</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>45048</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>45061</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-038C-4795-9F9F-9683852D5401}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="1631212255"/>
+        <c:axId val="1631227135"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1631212255"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1631227135"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1631227135"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="m/d/yyyy" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1631212255"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>31750</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7C4FACEA-19B7-4474-87DE-D91CF8D296F0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>539750</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>44450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>234950</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ECA93543-35AF-44B4-B2BC-5A720798042E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -419,8 +2252,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E1" sqref="E1:E1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -622,4 +2455,19 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{406BDAF1-9EB2-4486-969B-9790C482529E}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="I3" sqref="I3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/stage_1/Charts_Visualization_Basics/Charts_visualization_basics.xlsx
+++ b/stage_1/Charts_Visualization_Basics/Charts_visualization_basics.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC\Desktop\Excel-from-scratch\stage_1\Charts_Visualization_Basics\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F663A14-DDE2-48A1-8850-ACC06B9F19F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D78E559C-F2CE-4482-9E26-01EA6A35CBFF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -530,6 +530,36 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Sales</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> over Time</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1949,15 +1979,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>539750</xdr:colOff>
+      <xdr:colOff>558800</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>44450</xdr:rowOff>
+      <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>234950</xdr:colOff>
+      <xdr:colOff>139700</xdr:colOff>
       <xdr:row>16</xdr:row>
-      <xdr:rowOff>25400</xdr:rowOff>
+      <xdr:rowOff>19050</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2462,7 +2492,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="I3" sqref="I3"/>
+      <selection activeCell="R7" sqref="R7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>

--- a/stage_1/Charts_Visualization_Basics/Charts_visualization_basics.xlsx
+++ b/stage_1/Charts_Visualization_Basics/Charts_visualization_basics.xlsx
@@ -2,13 +2,13 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26327"/>
-  <workbookPr/>
+  <workbookPr hidePivotFieldList="1"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC\Desktop\Excel-from-scratch\stage_1\Charts_Visualization_Basics\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D78E559C-F2CE-4482-9E26-01EA6A35CBFF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B413D6D2-54B7-494A-9610-B68EA3007549}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,6 +17,9 @@
     <sheet name="Charts" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
+  <pivotCaches>
+    <pivotCache cacheId="2" r:id="rId3"/>
+  </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -26,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="21">
   <si>
     <t>Employee Name</t>
   </si>
@@ -61,22 +64,13 @@
     <t>Michael Smith</t>
   </si>
   <si>
-    <t>Marketing</t>
-  </si>
-  <si>
     <t>Aisha Bello</t>
   </si>
   <si>
     <t>Peter Zhang</t>
   </si>
   <si>
-    <t>Operations</t>
-  </si>
-  <si>
     <t>Maria Gonzalez</t>
-  </si>
-  <si>
-    <t>Customer Care</t>
   </si>
   <si>
     <t>Ahmed Musa</t>
@@ -89,6 +83,15 @@
   </si>
   <si>
     <t>Salary (NGN)</t>
+  </si>
+  <si>
+    <t>Row Labels</t>
+  </si>
+  <si>
+    <t>Grand Total</t>
+  </si>
+  <si>
+    <t>Sum of Sales</t>
   </si>
 </sst>
 </file>
@@ -132,12 +135,17 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -837,6 +845,670 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:pivotSource>
+    <c:name>[Charts_visualization_basics.xlsx]Data!PivotTable1</c:name>
+    <c:fmtId val="3"/>
+  </c:pivotSource>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Departmental</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> Sales</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:pivotFmts>
+      <c:pivotFmt>
+        <c:idx val="0"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="1"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="2"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="3"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="4"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="5"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="6"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+          <c:dLblPos val="outEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="1"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="7"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="8"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="9"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="10"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+      </c:pivotFmt>
+    </c:pivotFmts>
+    <c:plotArea>
+      <c:layout/>
+      <c:pieChart>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Data!$H$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Total</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-70B6-4214-8779-E9CF7EF2ACBB}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000003-70B6-4214-8779-E9CF7EF2ACBB}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="2"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000005-70B6-4214-8779-E9CF7EF2ACBB}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="3"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000007-70B6-4214-8779-E9CF7EF2ACBB}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="1"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Data!$G$3:$G$7</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>Finance</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>HR</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>IT</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Sales</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Data!$H$3:$H$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>71</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000008-70B6-4214-8779-E9CF7EF2ACBB}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:showLeaderLines val="0"/>
+        </c:dLbls>
+        <c:firstSliceAng val="0"/>
+      </c:pieChart>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+  <c:extLst>
+    <c:ext xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" uri="{781A3756-C4B2-4CAC-9D66-4F8BD8637D16}">
+      <c14:pivotOptions>
+        <c14:dropZoneFilter val="1"/>
+        <c14:dropZoneCategories val="1"/>
+        <c14:dropZoneData val="1"/>
+        <c14:dropZoneSeries val="1"/>
+      </c14:pivotOptions>
+    </c:ext>
+    <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{E28EC0CA-F0BB-4C9C-879D-F8772B89E7AC}">
+      <c16:pivotOptions16>
+        <c16:showExpandCollapseFieldButtons val="1"/>
+      </c16:pivotOptions16>
+    </c:ext>
+  </c:extLst>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -917,6 +1589,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
@@ -1904,6 +2616,525 @@
             <a:lumOff val="85000"/>
           </a:schemeClr>
         </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="251">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="25400">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:upBar>
@@ -1946,8 +3177,8 @@
       <xdr:rowOff>31750</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>133350</xdr:colOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
       <xdr:row>15</xdr:row>
       <xdr:rowOff>57150</xdr:rowOff>
     </xdr:to>
@@ -1978,16 +3209,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>558800</xdr:colOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>317500</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:rowOff>50800</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>139700</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>292100</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2014,7 +3245,336 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>527050</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E26F93ED-6AD3-4B78-B847-DB251C94831C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
+</file>
+
+<file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="PC" refreshedDate="45923.476343518516" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="10" xr:uid="{6DE875B1-5A7B-4F8D-86C1-D107E460A609}">
+  <cacheSource type="worksheet">
+    <worksheetSource ref="A1:E11" sheet="Data"/>
+  </cacheSource>
+  <cacheFields count="5">
+    <cacheField name="Employee Name" numFmtId="0">
+      <sharedItems/>
+    </cacheField>
+    <cacheField name="Department" numFmtId="0">
+      <sharedItems count="4">
+        <s v="HR"/>
+        <s v="IT"/>
+        <s v="Finance"/>
+        <s v="Sales"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="Salary (NGN)" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="110000" maxValue="180000"/>
+    </cacheField>
+    <cacheField name="Sales" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="15" maxValue="32"/>
+    </cacheField>
+    <cacheField name="Date" numFmtId="14">
+      <sharedItems containsSemiMixedTypes="0" containsNonDate="0" containsDate="1" containsString="0" minDate="2023-01-15T00:00:00" maxDate="2023-05-16T00:00:00"/>
+    </cacheField>
+  </cacheFields>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
+      <x14:pivotCacheDefinition/>
+    </ext>
+  </extLst>
+</pivotCacheDefinition>
+</file>
+
+<file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="10">
+  <r>
+    <s v="Kemi Adetola"/>
+    <x v="0"/>
+    <n v="110000"/>
+    <n v="15"/>
+    <d v="2023-01-15T00:00:00"/>
+  </r>
+  <r>
+    <s v="David Okoro"/>
+    <x v="1"/>
+    <n v="140000"/>
+    <n v="22"/>
+    <d v="2023-01-20T00:00:00"/>
+  </r>
+  <r>
+    <s v="Sarah Johnson"/>
+    <x v="2"/>
+    <n v="175000"/>
+    <n v="18"/>
+    <d v="2023-02-10T00:00:00"/>
+  </r>
+  <r>
+    <s v="Michael Smith"/>
+    <x v="3"/>
+    <n v="125000"/>
+    <n v="25"/>
+    <d v="2023-02-15T00:00:00"/>
+  </r>
+  <r>
+    <s v="Aisha Bello"/>
+    <x v="3"/>
+    <n v="160000"/>
+    <n v="30"/>
+    <d v="2023-03-01T00:00:00"/>
+  </r>
+  <r>
+    <s v="Peter Zhang"/>
+    <x v="2"/>
+    <n v="135000"/>
+    <n v="20"/>
+    <d v="2023-03-12T00:00:00"/>
+  </r>
+  <r>
+    <s v="Maria Gonzalez"/>
+    <x v="3"/>
+    <n v="120000"/>
+    <n v="16"/>
+    <d v="2023-04-01T00:00:00"/>
+  </r>
+  <r>
+    <s v="Ahmed Musa"/>
+    <x v="1"/>
+    <n v="150000"/>
+    <n v="28"/>
+    <d v="2023-04-18T00:00:00"/>
+  </r>
+  <r>
+    <s v="Linda Brown"/>
+    <x v="0"/>
+    <n v="130000"/>
+    <n v="24"/>
+    <d v="2023-05-02T00:00:00"/>
+  </r>
+  <r>
+    <s v="John Carter"/>
+    <x v="2"/>
+    <n v="180000"/>
+    <n v="32"/>
+    <d v="2023-05-15T00:00:00"/>
+  </r>
+</pivotCacheRecords>
+</file>
+
+<file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{AAC65F0F-1547-4CAD-8F16-4A5067A34944}" name="PivotTable1" cacheId="2" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="4">
+  <location ref="G2:H7" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="5">
+    <pivotField showAll="0"/>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="5">
+        <item x="2"/>
+        <item x="0"/>
+        <item x="1"/>
+        <item x="3"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField numFmtId="14" showAll="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="1"/>
+  </rowFields>
+  <rowItems count="5">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Sum of Sales" fld="3" baseField="0" baseItem="0"/>
+  </dataFields>
+  <chartFormats count="11">
+    <chartFormat chart="1" format="0" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="2" format="1" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="2" format="2">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="1" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="2" format="3">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="1" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="2" format="4">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="1" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="2" format="5">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="1" count="1" selected="0">
+            <x v="3"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="3" format="6" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="3" format="7">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="1" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="3" format="8">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="1" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="3" format="9">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="1" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="3" format="10">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="1" count="1" selected="0">
+            <x v="3"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2280,10 +3840,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E11"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E1" sqref="E1:E1048576"/>
+      <selection activeCell="G2" sqref="G2:H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2292,9 +3852,11 @@
     <col min="2" max="2" width="13.26953125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11.36328125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="13.36328125" customWidth="1"/>
+    <col min="7" max="7" width="12.36328125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.26953125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -2302,7 +3864,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>2</v>
@@ -2311,7 +3873,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -2327,8 +3889,14 @@
       <c r="E2" s="1">
         <v>44941</v>
       </c>
+      <c r="G2" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="H2" t="s">
+        <v>20</v>
+      </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -2344,8 +3912,14 @@
       <c r="E3" s="1">
         <v>44946</v>
       </c>
+      <c r="G3" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="H3" s="5">
+        <v>70</v>
+      </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>8</v>
       </c>
@@ -2361,13 +3935,19 @@
       <c r="E4" s="1">
         <v>44967</v>
       </c>
+      <c r="G4" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="H4" s="5">
+        <v>39</v>
+      </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>10</v>
       </c>
       <c r="B5" t="s">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="C5">
         <v>125000</v>
@@ -2378,10 +3958,16 @@
       <c r="E5" s="1">
         <v>44972</v>
       </c>
+      <c r="G5" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="H5" s="5">
+        <v>50</v>
+      </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B6" t="s">
         <v>2</v>
@@ -2395,13 +3981,19 @@
       <c r="E6" s="1">
         <v>44986</v>
       </c>
+      <c r="G6" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="H6" s="5">
+        <v>71</v>
+      </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B7" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="C7">
         <v>135000</v>
@@ -2412,13 +4004,19 @@
       <c r="E7" s="1">
         <v>44997</v>
       </c>
+      <c r="G7" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="H7" s="5">
+        <v>230</v>
+      </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B8" t="s">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="C8">
         <v>120000</v>
@@ -2430,9 +4028,9 @@
         <v>45017</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="B9" t="s">
         <v>7</v>
@@ -2447,9 +4045,9 @@
         <v>45034</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="B10" t="s">
         <v>5</v>
@@ -2464,9 +4062,9 @@
         <v>45048</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B11" t="s">
         <v>9</v>
@@ -2483,7 +4081,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -2492,7 +4090,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="R7" sqref="R7"/>
+      <selection activeCell="R18" sqref="R18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>

--- a/stage_1/Charts_Visualization_Basics/Charts_visualization_basics.xlsx
+++ b/stage_1/Charts_Visualization_Basics/Charts_visualization_basics.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC\Desktop\Excel-from-scratch\stage_1\Charts_Visualization_Basics\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B413D6D2-54B7-494A-9610-B68EA3007549}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{423A2778-40FD-4A74-B49F-DCEA2D793AFA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -18,7 +18,7 @@
   </sheets>
   <calcPr calcId="162913"/>
   <pivotCaches>
-    <pivotCache cacheId="2" r:id="rId3"/>
+    <pivotCache cacheId="4" r:id="rId3"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="26">
   <si>
     <t>Employee Name</t>
   </si>
@@ -92,6 +92,21 @@
   </si>
   <si>
     <t>Sum of Sales</t>
+  </si>
+  <si>
+    <t>Jan</t>
+  </si>
+  <si>
+    <t>Apr</t>
+  </si>
+  <si>
+    <t>Feb</t>
+  </si>
+  <si>
+    <t>Mar</t>
+  </si>
+  <si>
+    <t>May</t>
   </si>
 </sst>
 </file>
@@ -536,6 +551,10 @@
       <c:style val="2"/>
     </mc:Fallback>
   </mc:AlternateContent>
+  <c:pivotSource>
+    <c:name>[Charts_visualization_basics.xlsx]Data!PivotTable2</c:name>
+    <c:fmtId val="8"/>
+  </c:pivotSource>
   <c:chart>
     <c:title>
       <c:tx>
@@ -576,94 +595,160 @@
         </a:ln>
         <a:effectLst/>
       </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
     </c:title>
     <c:autoTitleDeleted val="0"/>
+    <c:pivotFmts>
+      <c:pivotFmt>
+        <c:idx val="0"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln w="28575" cap="rnd">
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:delete val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="1"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln w="28575" cap="rnd">
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:delete val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="2"/>
+        <c:spPr>
+          <a:ln w="28575" cap="rnd">
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:delete val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="3"/>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:delete val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+    </c:pivotFmts>
     <c:plotArea>
       <c:layout/>
       <c:lineChart>
         <c:grouping val="standard"/>
         <c:varyColors val="0"/>
         <c:ser>
-          <c:idx val="0"/>
+          <c:idx val="1"/>
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Data!$E$1</c:f>
+              <c:f>Data!$E$2:$E$11</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Date</c:v>
+                  <c:v>Total</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Data!$E$2:$E$11</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>Jan</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Feb</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Mar</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Apr</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>May</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
           <c:val>
             <c:numRef>
               <c:f>Data!$E$2:$E$11</c:f>
               <c:numCache>
-                <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="10"/>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>44941</c:v>
+                  <c:v>37</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>44946</c:v>
+                  <c:v>43</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>44967</c:v>
+                  <c:v>50</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>44972</c:v>
+                  <c:v>44</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>44986</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>44997</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>45017</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>45034</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>45048</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>45061</c:v>
+                  <c:v>56</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -671,7 +756,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-038C-4795-9F9F-9683852D5401}"/>
+              <c16:uniqueId val="{00000004-038C-4795-9F9F-9683852D5401}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -684,16 +769,17 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="1631212255"/>
-        <c:axId val="1631227135"/>
+        <c:axId val="1688401855"/>
+        <c:axId val="1688398975"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1631212255"/>
+        <c:axId val="1688401855"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -730,7 +816,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1631227135"/>
+        <c:crossAx val="1688398975"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -738,7 +824,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1631227135"/>
+        <c:axId val="1688398975"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -758,7 +844,7 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="m/d/yyyy" sourceLinked="1"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -789,10 +875,14 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1631212255"/>
+        <c:crossAx val="1688401855"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -800,33 +890,32 @@
         </a:ln>
         <a:effectLst/>
       </c:spPr>
-    </c:plotArea>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:extLst>
-      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
-        <c16r3:dataDisplayOptions16>
-          <c16r3:dispNaAsBlank val="1"/>
-        </c16r3:dataDisplayOptions16>
-      </c:ext>
-    </c:extLst>
     <c:showDLblsOverMax val="0"/>
+    <c:extLst/>
   </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
   <c:txPr>
     <a:bodyPr/>
     <a:lstStyle/>
@@ -842,6 +931,21 @@
     <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
     <c:pageSetup/>
   </c:printSettings>
+  <c:extLst>
+    <c:ext xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" uri="{781A3756-C4B2-4CAC-9D66-4F8BD8637D16}">
+      <c14:pivotOptions>
+        <c14:dropZoneFilter val="1"/>
+        <c14:dropZoneCategories val="1"/>
+        <c14:dropZoneData val="1"/>
+        <c14:dropZoneSeries val="1"/>
+      </c14:pivotOptions>
+    </c:ext>
+    <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{E28EC0CA-F0BB-4C9C-879D-F8772B89E7AC}">
+      <c16:pivotOptions16>
+        <c16:showExpandCollapseFieldButtons val="1"/>
+      </c16:pivotOptions16>
+    </c:ext>
+  </c:extLst>
 </c:chartSpace>
 </file>
 
@@ -1589,46 +1693,6 @@
 </cs:colorStyle>
 </file>
 
-<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
-</cs:colorStyle>
-</file>
-
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
@@ -2133,522 +2197,6 @@
 </file>
 
 <file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="28575" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="65000"/>
-          <a:lumOff val="35000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="75000"/>
-            <a:lumOff val="25000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDot"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
-<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="251">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -3291,7 +2839,7 @@
   <cacheSource type="worksheet">
     <worksheetSource ref="A1:E11" sheet="Data"/>
   </cacheSource>
-  <cacheFields count="5">
+  <cacheFields count="7">
     <cacheField name="Employee Name" numFmtId="0">
       <sharedItems/>
     </cacheField>
@@ -3307,10 +2855,429 @@
       <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="110000" maxValue="180000"/>
     </cacheField>
     <cacheField name="Sales" numFmtId="0">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="15" maxValue="32"/>
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="15" maxValue="32" count="10">
+        <n v="15"/>
+        <n v="22"/>
+        <n v="18"/>
+        <n v="25"/>
+        <n v="30"/>
+        <n v="20"/>
+        <n v="16"/>
+        <n v="28"/>
+        <n v="24"/>
+        <n v="32"/>
+      </sharedItems>
     </cacheField>
     <cacheField name="Date" numFmtId="14">
-      <sharedItems containsSemiMixedTypes="0" containsNonDate="0" containsDate="1" containsString="0" minDate="2023-01-15T00:00:00" maxDate="2023-05-16T00:00:00"/>
+      <sharedItems containsSemiMixedTypes="0" containsNonDate="0" containsDate="1" containsString="0" minDate="2023-01-15T00:00:00" maxDate="2023-05-16T00:00:00" count="10">
+        <d v="2023-01-15T00:00:00"/>
+        <d v="2023-01-20T00:00:00"/>
+        <d v="2023-02-10T00:00:00"/>
+        <d v="2023-02-15T00:00:00"/>
+        <d v="2023-03-01T00:00:00"/>
+        <d v="2023-03-12T00:00:00"/>
+        <d v="2023-04-01T00:00:00"/>
+        <d v="2023-04-18T00:00:00"/>
+        <d v="2023-05-02T00:00:00"/>
+        <d v="2023-05-15T00:00:00"/>
+      </sharedItems>
+      <fieldGroup par="6"/>
+    </cacheField>
+    <cacheField name="Days (Date)" numFmtId="0" databaseField="0">
+      <fieldGroup base="4">
+        <rangePr groupBy="days" startDate="2023-01-15T00:00:00" endDate="2023-05-16T00:00:00"/>
+        <groupItems count="368">
+          <s v="&lt;1/15/2023"/>
+          <s v="1-Jan"/>
+          <s v="2-Jan"/>
+          <s v="3-Jan"/>
+          <s v="4-Jan"/>
+          <s v="5-Jan"/>
+          <s v="6-Jan"/>
+          <s v="7-Jan"/>
+          <s v="8-Jan"/>
+          <s v="9-Jan"/>
+          <s v="10-Jan"/>
+          <s v="11-Jan"/>
+          <s v="12-Jan"/>
+          <s v="13-Jan"/>
+          <s v="14-Jan"/>
+          <s v="15-Jan"/>
+          <s v="16-Jan"/>
+          <s v="17-Jan"/>
+          <s v="18-Jan"/>
+          <s v="19-Jan"/>
+          <s v="20-Jan"/>
+          <s v="21-Jan"/>
+          <s v="22-Jan"/>
+          <s v="23-Jan"/>
+          <s v="24-Jan"/>
+          <s v="25-Jan"/>
+          <s v="26-Jan"/>
+          <s v="27-Jan"/>
+          <s v="28-Jan"/>
+          <s v="29-Jan"/>
+          <s v="30-Jan"/>
+          <s v="31-Jan"/>
+          <s v="1-Feb"/>
+          <s v="2-Feb"/>
+          <s v="3-Feb"/>
+          <s v="4-Feb"/>
+          <s v="5-Feb"/>
+          <s v="6-Feb"/>
+          <s v="7-Feb"/>
+          <s v="8-Feb"/>
+          <s v="9-Feb"/>
+          <s v="10-Feb"/>
+          <s v="11-Feb"/>
+          <s v="12-Feb"/>
+          <s v="13-Feb"/>
+          <s v="14-Feb"/>
+          <s v="15-Feb"/>
+          <s v="16-Feb"/>
+          <s v="17-Feb"/>
+          <s v="18-Feb"/>
+          <s v="19-Feb"/>
+          <s v="20-Feb"/>
+          <s v="21-Feb"/>
+          <s v="22-Feb"/>
+          <s v="23-Feb"/>
+          <s v="24-Feb"/>
+          <s v="25-Feb"/>
+          <s v="26-Feb"/>
+          <s v="27-Feb"/>
+          <s v="28-Feb"/>
+          <s v="29-Feb"/>
+          <s v="1-Mar"/>
+          <s v="2-Mar"/>
+          <s v="3-Mar"/>
+          <s v="4-Mar"/>
+          <s v="5-Mar"/>
+          <s v="6-Mar"/>
+          <s v="7-Mar"/>
+          <s v="8-Mar"/>
+          <s v="9-Mar"/>
+          <s v="10-Mar"/>
+          <s v="11-Mar"/>
+          <s v="12-Mar"/>
+          <s v="13-Mar"/>
+          <s v="14-Mar"/>
+          <s v="15-Mar"/>
+          <s v="16-Mar"/>
+          <s v="17-Mar"/>
+          <s v="18-Mar"/>
+          <s v="19-Mar"/>
+          <s v="20-Mar"/>
+          <s v="21-Mar"/>
+          <s v="22-Mar"/>
+          <s v="23-Mar"/>
+          <s v="24-Mar"/>
+          <s v="25-Mar"/>
+          <s v="26-Mar"/>
+          <s v="27-Mar"/>
+          <s v="28-Mar"/>
+          <s v="29-Mar"/>
+          <s v="30-Mar"/>
+          <s v="31-Mar"/>
+          <s v="1-Apr"/>
+          <s v="2-Apr"/>
+          <s v="3-Apr"/>
+          <s v="4-Apr"/>
+          <s v="5-Apr"/>
+          <s v="6-Apr"/>
+          <s v="7-Apr"/>
+          <s v="8-Apr"/>
+          <s v="9-Apr"/>
+          <s v="10-Apr"/>
+          <s v="11-Apr"/>
+          <s v="12-Apr"/>
+          <s v="13-Apr"/>
+          <s v="14-Apr"/>
+          <s v="15-Apr"/>
+          <s v="16-Apr"/>
+          <s v="17-Apr"/>
+          <s v="18-Apr"/>
+          <s v="19-Apr"/>
+          <s v="20-Apr"/>
+          <s v="21-Apr"/>
+          <s v="22-Apr"/>
+          <s v="23-Apr"/>
+          <s v="24-Apr"/>
+          <s v="25-Apr"/>
+          <s v="26-Apr"/>
+          <s v="27-Apr"/>
+          <s v="28-Apr"/>
+          <s v="29-Apr"/>
+          <s v="30-Apr"/>
+          <s v="1-May"/>
+          <s v="2-May"/>
+          <s v="3-May"/>
+          <s v="4-May"/>
+          <s v="5-May"/>
+          <s v="6-May"/>
+          <s v="7-May"/>
+          <s v="8-May"/>
+          <s v="9-May"/>
+          <s v="10-May"/>
+          <s v="11-May"/>
+          <s v="12-May"/>
+          <s v="13-May"/>
+          <s v="14-May"/>
+          <s v="15-May"/>
+          <s v="16-May"/>
+          <s v="17-May"/>
+          <s v="18-May"/>
+          <s v="19-May"/>
+          <s v="20-May"/>
+          <s v="21-May"/>
+          <s v="22-May"/>
+          <s v="23-May"/>
+          <s v="24-May"/>
+          <s v="25-May"/>
+          <s v="26-May"/>
+          <s v="27-May"/>
+          <s v="28-May"/>
+          <s v="29-May"/>
+          <s v="30-May"/>
+          <s v="31-May"/>
+          <s v="1-Jun"/>
+          <s v="2-Jun"/>
+          <s v="3-Jun"/>
+          <s v="4-Jun"/>
+          <s v="5-Jun"/>
+          <s v="6-Jun"/>
+          <s v="7-Jun"/>
+          <s v="8-Jun"/>
+          <s v="9-Jun"/>
+          <s v="10-Jun"/>
+          <s v="11-Jun"/>
+          <s v="12-Jun"/>
+          <s v="13-Jun"/>
+          <s v="14-Jun"/>
+          <s v="15-Jun"/>
+          <s v="16-Jun"/>
+          <s v="17-Jun"/>
+          <s v="18-Jun"/>
+          <s v="19-Jun"/>
+          <s v="20-Jun"/>
+          <s v="21-Jun"/>
+          <s v="22-Jun"/>
+          <s v="23-Jun"/>
+          <s v="24-Jun"/>
+          <s v="25-Jun"/>
+          <s v="26-Jun"/>
+          <s v="27-Jun"/>
+          <s v="28-Jun"/>
+          <s v="29-Jun"/>
+          <s v="30-Jun"/>
+          <s v="1-Jul"/>
+          <s v="2-Jul"/>
+          <s v="3-Jul"/>
+          <s v="4-Jul"/>
+          <s v="5-Jul"/>
+          <s v="6-Jul"/>
+          <s v="7-Jul"/>
+          <s v="8-Jul"/>
+          <s v="9-Jul"/>
+          <s v="10-Jul"/>
+          <s v="11-Jul"/>
+          <s v="12-Jul"/>
+          <s v="13-Jul"/>
+          <s v="14-Jul"/>
+          <s v="15-Jul"/>
+          <s v="16-Jul"/>
+          <s v="17-Jul"/>
+          <s v="18-Jul"/>
+          <s v="19-Jul"/>
+          <s v="20-Jul"/>
+          <s v="21-Jul"/>
+          <s v="22-Jul"/>
+          <s v="23-Jul"/>
+          <s v="24-Jul"/>
+          <s v="25-Jul"/>
+          <s v="26-Jul"/>
+          <s v="27-Jul"/>
+          <s v="28-Jul"/>
+          <s v="29-Jul"/>
+          <s v="30-Jul"/>
+          <s v="31-Jul"/>
+          <s v="1-Aug"/>
+          <s v="2-Aug"/>
+          <s v="3-Aug"/>
+          <s v="4-Aug"/>
+          <s v="5-Aug"/>
+          <s v="6-Aug"/>
+          <s v="7-Aug"/>
+          <s v="8-Aug"/>
+          <s v="9-Aug"/>
+          <s v="10-Aug"/>
+          <s v="11-Aug"/>
+          <s v="12-Aug"/>
+          <s v="13-Aug"/>
+          <s v="14-Aug"/>
+          <s v="15-Aug"/>
+          <s v="16-Aug"/>
+          <s v="17-Aug"/>
+          <s v="18-Aug"/>
+          <s v="19-Aug"/>
+          <s v="20-Aug"/>
+          <s v="21-Aug"/>
+          <s v="22-Aug"/>
+          <s v="23-Aug"/>
+          <s v="24-Aug"/>
+          <s v="25-Aug"/>
+          <s v="26-Aug"/>
+          <s v="27-Aug"/>
+          <s v="28-Aug"/>
+          <s v="29-Aug"/>
+          <s v="30-Aug"/>
+          <s v="31-Aug"/>
+          <s v="1-Sep"/>
+          <s v="2-Sep"/>
+          <s v="3-Sep"/>
+          <s v="4-Sep"/>
+          <s v="5-Sep"/>
+          <s v="6-Sep"/>
+          <s v="7-Sep"/>
+          <s v="8-Sep"/>
+          <s v="9-Sep"/>
+          <s v="10-Sep"/>
+          <s v="11-Sep"/>
+          <s v="12-Sep"/>
+          <s v="13-Sep"/>
+          <s v="14-Sep"/>
+          <s v="15-Sep"/>
+          <s v="16-Sep"/>
+          <s v="17-Sep"/>
+          <s v="18-Sep"/>
+          <s v="19-Sep"/>
+          <s v="20-Sep"/>
+          <s v="21-Sep"/>
+          <s v="22-Sep"/>
+          <s v="23-Sep"/>
+          <s v="24-Sep"/>
+          <s v="25-Sep"/>
+          <s v="26-Sep"/>
+          <s v="27-Sep"/>
+          <s v="28-Sep"/>
+          <s v="29-Sep"/>
+          <s v="30-Sep"/>
+          <s v="1-Oct"/>
+          <s v="2-Oct"/>
+          <s v="3-Oct"/>
+          <s v="4-Oct"/>
+          <s v="5-Oct"/>
+          <s v="6-Oct"/>
+          <s v="7-Oct"/>
+          <s v="8-Oct"/>
+          <s v="9-Oct"/>
+          <s v="10-Oct"/>
+          <s v="11-Oct"/>
+          <s v="12-Oct"/>
+          <s v="13-Oct"/>
+          <s v="14-Oct"/>
+          <s v="15-Oct"/>
+          <s v="16-Oct"/>
+          <s v="17-Oct"/>
+          <s v="18-Oct"/>
+          <s v="19-Oct"/>
+          <s v="20-Oct"/>
+          <s v="21-Oct"/>
+          <s v="22-Oct"/>
+          <s v="23-Oct"/>
+          <s v="24-Oct"/>
+          <s v="25-Oct"/>
+          <s v="26-Oct"/>
+          <s v="27-Oct"/>
+          <s v="28-Oct"/>
+          <s v="29-Oct"/>
+          <s v="30-Oct"/>
+          <s v="31-Oct"/>
+          <s v="1-Nov"/>
+          <s v="2-Nov"/>
+          <s v="3-Nov"/>
+          <s v="4-Nov"/>
+          <s v="5-Nov"/>
+          <s v="6-Nov"/>
+          <s v="7-Nov"/>
+          <s v="8-Nov"/>
+          <s v="9-Nov"/>
+          <s v="10-Nov"/>
+          <s v="11-Nov"/>
+          <s v="12-Nov"/>
+          <s v="13-Nov"/>
+          <s v="14-Nov"/>
+          <s v="15-Nov"/>
+          <s v="16-Nov"/>
+          <s v="17-Nov"/>
+          <s v="18-Nov"/>
+          <s v="19-Nov"/>
+          <s v="20-Nov"/>
+          <s v="21-Nov"/>
+          <s v="22-Nov"/>
+          <s v="23-Nov"/>
+          <s v="24-Nov"/>
+          <s v="25-Nov"/>
+          <s v="26-Nov"/>
+          <s v="27-Nov"/>
+          <s v="28-Nov"/>
+          <s v="29-Nov"/>
+          <s v="30-Nov"/>
+          <s v="1-Dec"/>
+          <s v="2-Dec"/>
+          <s v="3-Dec"/>
+          <s v="4-Dec"/>
+          <s v="5-Dec"/>
+          <s v="6-Dec"/>
+          <s v="7-Dec"/>
+          <s v="8-Dec"/>
+          <s v="9-Dec"/>
+          <s v="10-Dec"/>
+          <s v="11-Dec"/>
+          <s v="12-Dec"/>
+          <s v="13-Dec"/>
+          <s v="14-Dec"/>
+          <s v="15-Dec"/>
+          <s v="16-Dec"/>
+          <s v="17-Dec"/>
+          <s v="18-Dec"/>
+          <s v="19-Dec"/>
+          <s v="20-Dec"/>
+          <s v="21-Dec"/>
+          <s v="22-Dec"/>
+          <s v="23-Dec"/>
+          <s v="24-Dec"/>
+          <s v="25-Dec"/>
+          <s v="26-Dec"/>
+          <s v="27-Dec"/>
+          <s v="28-Dec"/>
+          <s v="29-Dec"/>
+          <s v="30-Dec"/>
+          <s v="31-Dec"/>
+          <s v="&gt;5/16/2023"/>
+        </groupItems>
+      </fieldGroup>
+    </cacheField>
+    <cacheField name="Months (Date)" numFmtId="0" databaseField="0">
+      <fieldGroup base="4">
+        <rangePr groupBy="months" startDate="2023-01-15T00:00:00" endDate="2023-05-16T00:00:00"/>
+        <groupItems count="14">
+          <s v="&lt;1/15/2023"/>
+          <s v="Jan"/>
+          <s v="Feb"/>
+          <s v="Mar"/>
+          <s v="Apr"/>
+          <s v="May"/>
+          <s v="Jun"/>
+          <s v="Jul"/>
+          <s v="Aug"/>
+          <s v="Sep"/>
+          <s v="Oct"/>
+          <s v="Nov"/>
+          <s v="Dec"/>
+          <s v="&gt;5/16/2023"/>
+        </groupItems>
+      </fieldGroup>
     </cacheField>
   </cacheFields>
   <extLst>
@@ -3327,79 +3294,597 @@
     <s v="Kemi Adetola"/>
     <x v="0"/>
     <n v="110000"/>
-    <n v="15"/>
-    <d v="2023-01-15T00:00:00"/>
+    <x v="0"/>
+    <x v="0"/>
   </r>
   <r>
     <s v="David Okoro"/>
     <x v="1"/>
     <n v="140000"/>
-    <n v="22"/>
-    <d v="2023-01-20T00:00:00"/>
+    <x v="1"/>
+    <x v="1"/>
   </r>
   <r>
     <s v="Sarah Johnson"/>
     <x v="2"/>
     <n v="175000"/>
-    <n v="18"/>
-    <d v="2023-02-10T00:00:00"/>
+    <x v="2"/>
+    <x v="2"/>
   </r>
   <r>
     <s v="Michael Smith"/>
     <x v="3"/>
     <n v="125000"/>
-    <n v="25"/>
-    <d v="2023-02-15T00:00:00"/>
+    <x v="3"/>
+    <x v="3"/>
   </r>
   <r>
     <s v="Aisha Bello"/>
     <x v="3"/>
     <n v="160000"/>
-    <n v="30"/>
-    <d v="2023-03-01T00:00:00"/>
+    <x v="4"/>
+    <x v="4"/>
   </r>
   <r>
     <s v="Peter Zhang"/>
     <x v="2"/>
     <n v="135000"/>
-    <n v="20"/>
-    <d v="2023-03-12T00:00:00"/>
+    <x v="5"/>
+    <x v="5"/>
   </r>
   <r>
     <s v="Maria Gonzalez"/>
     <x v="3"/>
     <n v="120000"/>
-    <n v="16"/>
-    <d v="2023-04-01T00:00:00"/>
+    <x v="6"/>
+    <x v="6"/>
   </r>
   <r>
     <s v="Ahmed Musa"/>
     <x v="1"/>
     <n v="150000"/>
-    <n v="28"/>
-    <d v="2023-04-18T00:00:00"/>
+    <x v="7"/>
+    <x v="7"/>
   </r>
   <r>
     <s v="Linda Brown"/>
     <x v="0"/>
     <n v="130000"/>
-    <n v="24"/>
-    <d v="2023-05-02T00:00:00"/>
+    <x v="8"/>
+    <x v="8"/>
   </r>
   <r>
     <s v="John Carter"/>
     <x v="2"/>
     <n v="180000"/>
-    <n v="32"/>
-    <d v="2023-05-15T00:00:00"/>
+    <x v="9"/>
+    <x v="9"/>
   </r>
 </pivotCacheRecords>
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{AAC65F0F-1547-4CAD-8F16-4A5067A34944}" name="PivotTable1" cacheId="2" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="4">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{FE1F085F-DB29-40B6-89F6-883872C06221}" name="PivotTable2" cacheId="4" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="9">
+  <location ref="G9:H15" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="7">
+    <pivotField showAll="0"/>
+    <pivotField showAll="0">
+      <items count="5">
+        <item x="2"/>
+        <item x="0"/>
+        <item x="1"/>
+        <item x="3"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField dataField="1" showAll="0">
+      <items count="11">
+        <item x="0"/>
+        <item x="6"/>
+        <item x="2"/>
+        <item x="5"/>
+        <item x="1"/>
+        <item x="8"/>
+        <item x="3"/>
+        <item x="7"/>
+        <item x="4"/>
+        <item x="9"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField numFmtId="14" showAll="0">
+      <items count="11">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item x="8"/>
+        <item x="9"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="369">
+        <item sd="0" x="0"/>
+        <item sd="0" x="1"/>
+        <item sd="0" x="2"/>
+        <item sd="0" x="3"/>
+        <item sd="0" x="4"/>
+        <item sd="0" x="5"/>
+        <item sd="0" x="6"/>
+        <item sd="0" x="7"/>
+        <item sd="0" x="8"/>
+        <item sd="0" x="9"/>
+        <item sd="0" x="10"/>
+        <item sd="0" x="11"/>
+        <item sd="0" x="12"/>
+        <item sd="0" x="13"/>
+        <item sd="0" x="14"/>
+        <item sd="0" x="15"/>
+        <item sd="0" x="16"/>
+        <item sd="0" x="17"/>
+        <item sd="0" x="18"/>
+        <item sd="0" x="19"/>
+        <item sd="0" x="20"/>
+        <item sd="0" x="21"/>
+        <item sd="0" x="22"/>
+        <item sd="0" x="23"/>
+        <item sd="0" x="24"/>
+        <item sd="0" x="25"/>
+        <item sd="0" x="26"/>
+        <item sd="0" x="27"/>
+        <item sd="0" x="28"/>
+        <item sd="0" x="29"/>
+        <item sd="0" x="30"/>
+        <item sd="0" x="31"/>
+        <item sd="0" x="32"/>
+        <item sd="0" x="33"/>
+        <item sd="0" x="34"/>
+        <item sd="0" x="35"/>
+        <item sd="0" x="36"/>
+        <item sd="0" x="37"/>
+        <item sd="0" x="38"/>
+        <item sd="0" x="39"/>
+        <item sd="0" x="40"/>
+        <item sd="0" x="41"/>
+        <item sd="0" x="42"/>
+        <item sd="0" x="43"/>
+        <item sd="0" x="44"/>
+        <item sd="0" x="45"/>
+        <item sd="0" x="46"/>
+        <item sd="0" x="47"/>
+        <item sd="0" x="48"/>
+        <item sd="0" x="49"/>
+        <item sd="0" x="50"/>
+        <item sd="0" x="51"/>
+        <item sd="0" x="52"/>
+        <item sd="0" x="53"/>
+        <item sd="0" x="54"/>
+        <item sd="0" x="55"/>
+        <item sd="0" x="56"/>
+        <item sd="0" x="57"/>
+        <item sd="0" x="58"/>
+        <item sd="0" x="59"/>
+        <item sd="0" x="60"/>
+        <item sd="0" x="61"/>
+        <item sd="0" x="62"/>
+        <item sd="0" x="63"/>
+        <item sd="0" x="64"/>
+        <item sd="0" x="65"/>
+        <item sd="0" x="66"/>
+        <item sd="0" x="67"/>
+        <item sd="0" x="68"/>
+        <item sd="0" x="69"/>
+        <item sd="0" x="70"/>
+        <item sd="0" x="71"/>
+        <item sd="0" x="72"/>
+        <item sd="0" x="73"/>
+        <item sd="0" x="74"/>
+        <item sd="0" x="75"/>
+        <item sd="0" x="76"/>
+        <item sd="0" x="77"/>
+        <item sd="0" x="78"/>
+        <item sd="0" x="79"/>
+        <item sd="0" x="80"/>
+        <item sd="0" x="81"/>
+        <item sd="0" x="82"/>
+        <item sd="0" x="83"/>
+        <item sd="0" x="84"/>
+        <item sd="0" x="85"/>
+        <item sd="0" x="86"/>
+        <item sd="0" x="87"/>
+        <item sd="0" x="88"/>
+        <item sd="0" x="89"/>
+        <item sd="0" x="90"/>
+        <item sd="0" x="91"/>
+        <item sd="0" x="92"/>
+        <item sd="0" x="93"/>
+        <item sd="0" x="94"/>
+        <item sd="0" x="95"/>
+        <item sd="0" x="96"/>
+        <item sd="0" x="97"/>
+        <item sd="0" x="98"/>
+        <item sd="0" x="99"/>
+        <item sd="0" x="100"/>
+        <item sd="0" x="101"/>
+        <item sd="0" x="102"/>
+        <item sd="0" x="103"/>
+        <item sd="0" x="104"/>
+        <item sd="0" x="105"/>
+        <item sd="0" x="106"/>
+        <item sd="0" x="107"/>
+        <item sd="0" x="108"/>
+        <item sd="0" x="109"/>
+        <item sd="0" x="110"/>
+        <item sd="0" x="111"/>
+        <item sd="0" x="112"/>
+        <item sd="0" x="113"/>
+        <item sd="0" x="114"/>
+        <item sd="0" x="115"/>
+        <item sd="0" x="116"/>
+        <item sd="0" x="117"/>
+        <item sd="0" x="118"/>
+        <item sd="0" x="119"/>
+        <item sd="0" x="120"/>
+        <item sd="0" x="121"/>
+        <item sd="0" x="122"/>
+        <item sd="0" x="123"/>
+        <item sd="0" x="124"/>
+        <item sd="0" x="125"/>
+        <item sd="0" x="126"/>
+        <item sd="0" x="127"/>
+        <item sd="0" x="128"/>
+        <item sd="0" x="129"/>
+        <item sd="0" x="130"/>
+        <item sd="0" x="131"/>
+        <item sd="0" x="132"/>
+        <item sd="0" x="133"/>
+        <item sd="0" x="134"/>
+        <item sd="0" x="135"/>
+        <item sd="0" x="136"/>
+        <item sd="0" x="137"/>
+        <item sd="0" x="138"/>
+        <item sd="0" x="139"/>
+        <item sd="0" x="140"/>
+        <item sd="0" x="141"/>
+        <item sd="0" x="142"/>
+        <item sd="0" x="143"/>
+        <item sd="0" x="144"/>
+        <item sd="0" x="145"/>
+        <item sd="0" x="146"/>
+        <item sd="0" x="147"/>
+        <item sd="0" x="148"/>
+        <item sd="0" x="149"/>
+        <item sd="0" x="150"/>
+        <item sd="0" x="151"/>
+        <item sd="0" x="152"/>
+        <item sd="0" x="153"/>
+        <item sd="0" x="154"/>
+        <item sd="0" x="155"/>
+        <item sd="0" x="156"/>
+        <item sd="0" x="157"/>
+        <item sd="0" x="158"/>
+        <item sd="0" x="159"/>
+        <item sd="0" x="160"/>
+        <item sd="0" x="161"/>
+        <item sd="0" x="162"/>
+        <item sd="0" x="163"/>
+        <item sd="0" x="164"/>
+        <item sd="0" x="165"/>
+        <item sd="0" x="166"/>
+        <item sd="0" x="167"/>
+        <item sd="0" x="168"/>
+        <item sd="0" x="169"/>
+        <item sd="0" x="170"/>
+        <item sd="0" x="171"/>
+        <item sd="0" x="172"/>
+        <item sd="0" x="173"/>
+        <item sd="0" x="174"/>
+        <item sd="0" x="175"/>
+        <item sd="0" x="176"/>
+        <item sd="0" x="177"/>
+        <item sd="0" x="178"/>
+        <item sd="0" x="179"/>
+        <item sd="0" x="180"/>
+        <item sd="0" x="181"/>
+        <item sd="0" x="182"/>
+        <item sd="0" x="183"/>
+        <item sd="0" x="184"/>
+        <item sd="0" x="185"/>
+        <item sd="0" x="186"/>
+        <item sd="0" x="187"/>
+        <item sd="0" x="188"/>
+        <item sd="0" x="189"/>
+        <item sd="0" x="190"/>
+        <item sd="0" x="191"/>
+        <item sd="0" x="192"/>
+        <item sd="0" x="193"/>
+        <item sd="0" x="194"/>
+        <item sd="0" x="195"/>
+        <item sd="0" x="196"/>
+        <item sd="0" x="197"/>
+        <item sd="0" x="198"/>
+        <item sd="0" x="199"/>
+        <item sd="0" x="200"/>
+        <item sd="0" x="201"/>
+        <item sd="0" x="202"/>
+        <item sd="0" x="203"/>
+        <item sd="0" x="204"/>
+        <item sd="0" x="205"/>
+        <item sd="0" x="206"/>
+        <item sd="0" x="207"/>
+        <item sd="0" x="208"/>
+        <item sd="0" x="209"/>
+        <item sd="0" x="210"/>
+        <item sd="0" x="211"/>
+        <item sd="0" x="212"/>
+        <item sd="0" x="213"/>
+        <item sd="0" x="214"/>
+        <item sd="0" x="215"/>
+        <item sd="0" x="216"/>
+        <item sd="0" x="217"/>
+        <item sd="0" x="218"/>
+        <item sd="0" x="219"/>
+        <item sd="0" x="220"/>
+        <item sd="0" x="221"/>
+        <item sd="0" x="222"/>
+        <item sd="0" x="223"/>
+        <item sd="0" x="224"/>
+        <item sd="0" x="225"/>
+        <item sd="0" x="226"/>
+        <item sd="0" x="227"/>
+        <item sd="0" x="228"/>
+        <item sd="0" x="229"/>
+        <item sd="0" x="230"/>
+        <item sd="0" x="231"/>
+        <item sd="0" x="232"/>
+        <item sd="0" x="233"/>
+        <item sd="0" x="234"/>
+        <item sd="0" x="235"/>
+        <item sd="0" x="236"/>
+        <item sd="0" x="237"/>
+        <item sd="0" x="238"/>
+        <item sd="0" x="239"/>
+        <item sd="0" x="240"/>
+        <item sd="0" x="241"/>
+        <item sd="0" x="242"/>
+        <item sd="0" x="243"/>
+        <item sd="0" x="244"/>
+        <item sd="0" x="245"/>
+        <item sd="0" x="246"/>
+        <item sd="0" x="247"/>
+        <item sd="0" x="248"/>
+        <item sd="0" x="249"/>
+        <item sd="0" x="250"/>
+        <item sd="0" x="251"/>
+        <item sd="0" x="252"/>
+        <item sd="0" x="253"/>
+        <item sd="0" x="254"/>
+        <item sd="0" x="255"/>
+        <item sd="0" x="256"/>
+        <item sd="0" x="257"/>
+        <item sd="0" x="258"/>
+        <item sd="0" x="259"/>
+        <item sd="0" x="260"/>
+        <item sd="0" x="261"/>
+        <item sd="0" x="262"/>
+        <item sd="0" x="263"/>
+        <item sd="0" x="264"/>
+        <item sd="0" x="265"/>
+        <item sd="0" x="266"/>
+        <item sd="0" x="267"/>
+        <item sd="0" x="268"/>
+        <item sd="0" x="269"/>
+        <item sd="0" x="270"/>
+        <item sd="0" x="271"/>
+        <item sd="0" x="272"/>
+        <item sd="0" x="273"/>
+        <item sd="0" x="274"/>
+        <item sd="0" x="275"/>
+        <item sd="0" x="276"/>
+        <item sd="0" x="277"/>
+        <item sd="0" x="278"/>
+        <item sd="0" x="279"/>
+        <item sd="0" x="280"/>
+        <item sd="0" x="281"/>
+        <item sd="0" x="282"/>
+        <item sd="0" x="283"/>
+        <item sd="0" x="284"/>
+        <item sd="0" x="285"/>
+        <item sd="0" x="286"/>
+        <item sd="0" x="287"/>
+        <item sd="0" x="288"/>
+        <item sd="0" x="289"/>
+        <item sd="0" x="290"/>
+        <item sd="0" x="291"/>
+        <item sd="0" x="292"/>
+        <item sd="0" x="293"/>
+        <item sd="0" x="294"/>
+        <item sd="0" x="295"/>
+        <item sd="0" x="296"/>
+        <item sd="0" x="297"/>
+        <item sd="0" x="298"/>
+        <item sd="0" x="299"/>
+        <item sd="0" x="300"/>
+        <item sd="0" x="301"/>
+        <item sd="0" x="302"/>
+        <item sd="0" x="303"/>
+        <item sd="0" x="304"/>
+        <item sd="0" x="305"/>
+        <item sd="0" x="306"/>
+        <item sd="0" x="307"/>
+        <item sd="0" x="308"/>
+        <item sd="0" x="309"/>
+        <item sd="0" x="310"/>
+        <item sd="0" x="311"/>
+        <item sd="0" x="312"/>
+        <item sd="0" x="313"/>
+        <item sd="0" x="314"/>
+        <item sd="0" x="315"/>
+        <item sd="0" x="316"/>
+        <item sd="0" x="317"/>
+        <item sd="0" x="318"/>
+        <item sd="0" x="319"/>
+        <item sd="0" x="320"/>
+        <item sd="0" x="321"/>
+        <item sd="0" x="322"/>
+        <item sd="0" x="323"/>
+        <item sd="0" x="324"/>
+        <item sd="0" x="325"/>
+        <item sd="0" x="326"/>
+        <item sd="0" x="327"/>
+        <item sd="0" x="328"/>
+        <item sd="0" x="329"/>
+        <item sd="0" x="330"/>
+        <item sd="0" x="331"/>
+        <item sd="0" x="332"/>
+        <item sd="0" x="333"/>
+        <item sd="0" x="334"/>
+        <item sd="0" x="335"/>
+        <item sd="0" x="336"/>
+        <item sd="0" x="337"/>
+        <item sd="0" x="338"/>
+        <item sd="0" x="339"/>
+        <item sd="0" x="340"/>
+        <item sd="0" x="341"/>
+        <item sd="0" x="342"/>
+        <item sd="0" x="343"/>
+        <item sd="0" x="344"/>
+        <item sd="0" x="345"/>
+        <item sd="0" x="346"/>
+        <item sd="0" x="347"/>
+        <item sd="0" x="348"/>
+        <item sd="0" x="349"/>
+        <item sd="0" x="350"/>
+        <item sd="0" x="351"/>
+        <item sd="0" x="352"/>
+        <item sd="0" x="353"/>
+        <item sd="0" x="354"/>
+        <item sd="0" x="355"/>
+        <item sd="0" x="356"/>
+        <item sd="0" x="357"/>
+        <item sd="0" x="358"/>
+        <item sd="0" x="359"/>
+        <item sd="0" x="360"/>
+        <item sd="0" x="361"/>
+        <item sd="0" x="362"/>
+        <item sd="0" x="363"/>
+        <item sd="0" x="364"/>
+        <item sd="0" x="365"/>
+        <item sd="0" x="366"/>
+        <item sd="0" x="367"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="15">
+        <item sd="0" x="0"/>
+        <item sd="0" x="1"/>
+        <item sd="0" x="2"/>
+        <item sd="0" x="3"/>
+        <item sd="0" x="4"/>
+        <item sd="0" x="5"/>
+        <item sd="0" x="6"/>
+        <item sd="0" x="7"/>
+        <item sd="0" x="8"/>
+        <item sd="0" x="9"/>
+        <item sd="0" x="10"/>
+        <item sd="0" x="11"/>
+        <item sd="0" x="12"/>
+        <item sd="0" x="13"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+  </pivotFields>
+  <rowFields count="2">
+    <field x="6"/>
+    <field x="5"/>
+  </rowFields>
+  <rowItems count="6">
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Sum of Sales" fld="3" baseField="0" baseItem="0"/>
+  </dataFields>
+  <chartFormats count="4">
+    <chartFormat chart="5" format="0" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="6" format="1" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="7" format="2" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="8" format="3" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{AAC65F0F-1547-4CAD-8F16-4A5067A34944}" name="PivotTable1" cacheId="4" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="4">
   <location ref="G2:H7" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
-  <pivotFields count="5">
+  <pivotFields count="7">
     <pivotField showAll="0"/>
     <pivotField axis="axisRow" showAll="0">
       <items count="5">
@@ -3412,7 +3897,413 @@
     </pivotField>
     <pivotField showAll="0"/>
     <pivotField dataField="1" showAll="0"/>
-    <pivotField numFmtId="14" showAll="0"/>
+    <pivotField numFmtId="14" showAll="0">
+      <items count="11">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item x="8"/>
+        <item x="9"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0">
+      <items count="369">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item x="8"/>
+        <item x="9"/>
+        <item x="10"/>
+        <item x="11"/>
+        <item x="12"/>
+        <item x="13"/>
+        <item x="14"/>
+        <item x="15"/>
+        <item x="16"/>
+        <item x="17"/>
+        <item x="18"/>
+        <item x="19"/>
+        <item x="20"/>
+        <item x="21"/>
+        <item x="22"/>
+        <item x="23"/>
+        <item x="24"/>
+        <item x="25"/>
+        <item x="26"/>
+        <item x="27"/>
+        <item x="28"/>
+        <item x="29"/>
+        <item x="30"/>
+        <item x="31"/>
+        <item x="32"/>
+        <item x="33"/>
+        <item x="34"/>
+        <item x="35"/>
+        <item x="36"/>
+        <item x="37"/>
+        <item x="38"/>
+        <item x="39"/>
+        <item x="40"/>
+        <item x="41"/>
+        <item x="42"/>
+        <item x="43"/>
+        <item x="44"/>
+        <item x="45"/>
+        <item x="46"/>
+        <item x="47"/>
+        <item x="48"/>
+        <item x="49"/>
+        <item x="50"/>
+        <item x="51"/>
+        <item x="52"/>
+        <item x="53"/>
+        <item x="54"/>
+        <item x="55"/>
+        <item x="56"/>
+        <item x="57"/>
+        <item x="58"/>
+        <item x="59"/>
+        <item x="60"/>
+        <item x="61"/>
+        <item x="62"/>
+        <item x="63"/>
+        <item x="64"/>
+        <item x="65"/>
+        <item x="66"/>
+        <item x="67"/>
+        <item x="68"/>
+        <item x="69"/>
+        <item x="70"/>
+        <item x="71"/>
+        <item x="72"/>
+        <item x="73"/>
+        <item x="74"/>
+        <item x="75"/>
+        <item x="76"/>
+        <item x="77"/>
+        <item x="78"/>
+        <item x="79"/>
+        <item x="80"/>
+        <item x="81"/>
+        <item x="82"/>
+        <item x="83"/>
+        <item x="84"/>
+        <item x="85"/>
+        <item x="86"/>
+        <item x="87"/>
+        <item x="88"/>
+        <item x="89"/>
+        <item x="90"/>
+        <item x="91"/>
+        <item x="92"/>
+        <item x="93"/>
+        <item x="94"/>
+        <item x="95"/>
+        <item x="96"/>
+        <item x="97"/>
+        <item x="98"/>
+        <item x="99"/>
+        <item x="100"/>
+        <item x="101"/>
+        <item x="102"/>
+        <item x="103"/>
+        <item x="104"/>
+        <item x="105"/>
+        <item x="106"/>
+        <item x="107"/>
+        <item x="108"/>
+        <item x="109"/>
+        <item x="110"/>
+        <item x="111"/>
+        <item x="112"/>
+        <item x="113"/>
+        <item x="114"/>
+        <item x="115"/>
+        <item x="116"/>
+        <item x="117"/>
+        <item x="118"/>
+        <item x="119"/>
+        <item x="120"/>
+        <item x="121"/>
+        <item x="122"/>
+        <item x="123"/>
+        <item x="124"/>
+        <item x="125"/>
+        <item x="126"/>
+        <item x="127"/>
+        <item x="128"/>
+        <item x="129"/>
+        <item x="130"/>
+        <item x="131"/>
+        <item x="132"/>
+        <item x="133"/>
+        <item x="134"/>
+        <item x="135"/>
+        <item x="136"/>
+        <item x="137"/>
+        <item x="138"/>
+        <item x="139"/>
+        <item x="140"/>
+        <item x="141"/>
+        <item x="142"/>
+        <item x="143"/>
+        <item x="144"/>
+        <item x="145"/>
+        <item x="146"/>
+        <item x="147"/>
+        <item x="148"/>
+        <item x="149"/>
+        <item x="150"/>
+        <item x="151"/>
+        <item x="152"/>
+        <item x="153"/>
+        <item x="154"/>
+        <item x="155"/>
+        <item x="156"/>
+        <item x="157"/>
+        <item x="158"/>
+        <item x="159"/>
+        <item x="160"/>
+        <item x="161"/>
+        <item x="162"/>
+        <item x="163"/>
+        <item x="164"/>
+        <item x="165"/>
+        <item x="166"/>
+        <item x="167"/>
+        <item x="168"/>
+        <item x="169"/>
+        <item x="170"/>
+        <item x="171"/>
+        <item x="172"/>
+        <item x="173"/>
+        <item x="174"/>
+        <item x="175"/>
+        <item x="176"/>
+        <item x="177"/>
+        <item x="178"/>
+        <item x="179"/>
+        <item x="180"/>
+        <item x="181"/>
+        <item x="182"/>
+        <item x="183"/>
+        <item x="184"/>
+        <item x="185"/>
+        <item x="186"/>
+        <item x="187"/>
+        <item x="188"/>
+        <item x="189"/>
+        <item x="190"/>
+        <item x="191"/>
+        <item x="192"/>
+        <item x="193"/>
+        <item x="194"/>
+        <item x="195"/>
+        <item x="196"/>
+        <item x="197"/>
+        <item x="198"/>
+        <item x="199"/>
+        <item x="200"/>
+        <item x="201"/>
+        <item x="202"/>
+        <item x="203"/>
+        <item x="204"/>
+        <item x="205"/>
+        <item x="206"/>
+        <item x="207"/>
+        <item x="208"/>
+        <item x="209"/>
+        <item x="210"/>
+        <item x="211"/>
+        <item x="212"/>
+        <item x="213"/>
+        <item x="214"/>
+        <item x="215"/>
+        <item x="216"/>
+        <item x="217"/>
+        <item x="218"/>
+        <item x="219"/>
+        <item x="220"/>
+        <item x="221"/>
+        <item x="222"/>
+        <item x="223"/>
+        <item x="224"/>
+        <item x="225"/>
+        <item x="226"/>
+        <item x="227"/>
+        <item x="228"/>
+        <item x="229"/>
+        <item x="230"/>
+        <item x="231"/>
+        <item x="232"/>
+        <item x="233"/>
+        <item x="234"/>
+        <item x="235"/>
+        <item x="236"/>
+        <item x="237"/>
+        <item x="238"/>
+        <item x="239"/>
+        <item x="240"/>
+        <item x="241"/>
+        <item x="242"/>
+        <item x="243"/>
+        <item x="244"/>
+        <item x="245"/>
+        <item x="246"/>
+        <item x="247"/>
+        <item x="248"/>
+        <item x="249"/>
+        <item x="250"/>
+        <item x="251"/>
+        <item x="252"/>
+        <item x="253"/>
+        <item x="254"/>
+        <item x="255"/>
+        <item x="256"/>
+        <item x="257"/>
+        <item x="258"/>
+        <item x="259"/>
+        <item x="260"/>
+        <item x="261"/>
+        <item x="262"/>
+        <item x="263"/>
+        <item x="264"/>
+        <item x="265"/>
+        <item x="266"/>
+        <item x="267"/>
+        <item x="268"/>
+        <item x="269"/>
+        <item x="270"/>
+        <item x="271"/>
+        <item x="272"/>
+        <item x="273"/>
+        <item x="274"/>
+        <item x="275"/>
+        <item x="276"/>
+        <item x="277"/>
+        <item x="278"/>
+        <item x="279"/>
+        <item x="280"/>
+        <item x="281"/>
+        <item x="282"/>
+        <item x="283"/>
+        <item x="284"/>
+        <item x="285"/>
+        <item x="286"/>
+        <item x="287"/>
+        <item x="288"/>
+        <item x="289"/>
+        <item x="290"/>
+        <item x="291"/>
+        <item x="292"/>
+        <item x="293"/>
+        <item x="294"/>
+        <item x="295"/>
+        <item x="296"/>
+        <item x="297"/>
+        <item x="298"/>
+        <item x="299"/>
+        <item x="300"/>
+        <item x="301"/>
+        <item x="302"/>
+        <item x="303"/>
+        <item x="304"/>
+        <item x="305"/>
+        <item x="306"/>
+        <item x="307"/>
+        <item x="308"/>
+        <item x="309"/>
+        <item x="310"/>
+        <item x="311"/>
+        <item x="312"/>
+        <item x="313"/>
+        <item x="314"/>
+        <item x="315"/>
+        <item x="316"/>
+        <item x="317"/>
+        <item x="318"/>
+        <item x="319"/>
+        <item x="320"/>
+        <item x="321"/>
+        <item x="322"/>
+        <item x="323"/>
+        <item x="324"/>
+        <item x="325"/>
+        <item x="326"/>
+        <item x="327"/>
+        <item x="328"/>
+        <item x="329"/>
+        <item x="330"/>
+        <item x="331"/>
+        <item x="332"/>
+        <item x="333"/>
+        <item x="334"/>
+        <item x="335"/>
+        <item x="336"/>
+        <item x="337"/>
+        <item x="338"/>
+        <item x="339"/>
+        <item x="340"/>
+        <item x="341"/>
+        <item x="342"/>
+        <item x="343"/>
+        <item x="344"/>
+        <item x="345"/>
+        <item x="346"/>
+        <item x="347"/>
+        <item x="348"/>
+        <item x="349"/>
+        <item x="350"/>
+        <item x="351"/>
+        <item x="352"/>
+        <item x="353"/>
+        <item x="354"/>
+        <item x="355"/>
+        <item x="356"/>
+        <item x="357"/>
+        <item x="358"/>
+        <item x="359"/>
+        <item x="360"/>
+        <item x="361"/>
+        <item x="362"/>
+        <item x="363"/>
+        <item x="364"/>
+        <item x="365"/>
+        <item x="366"/>
+        <item x="367"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0">
+      <items count="15">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item x="8"/>
+        <item x="9"/>
+        <item x="10"/>
+        <item x="11"/>
+        <item x="12"/>
+        <item x="13"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
   </pivotFields>
   <rowFields count="1">
     <field x="1"/>
@@ -3440,69 +4331,12 @@
   <dataFields count="1">
     <dataField name="Sum of Sales" fld="3" baseField="0" baseItem="0"/>
   </dataFields>
-  <chartFormats count="11">
+  <chartFormats count="6">
     <chartFormat chart="1" format="0" series="1">
       <pivotArea type="data" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1" selected="0">
             <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="2" format="1" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="2" format="2">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="1" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="2" format="3">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="1" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="2" format="4">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="1" count="1" selected="0">
-            <x v="2"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="2" format="5">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="1" count="1" selected="0">
-            <x v="3"/>
           </reference>
         </references>
       </pivotArea>
@@ -3840,10 +4674,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H11"/>
+  <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G2" sqref="G2:H7"/>
+      <selection activeCell="G9" sqref="G9:H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4044,6 +4878,12 @@
       <c r="E9" s="1">
         <v>45034</v>
       </c>
+      <c r="G9" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="H9" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
@@ -4061,6 +4901,12 @@
       <c r="E10" s="1">
         <v>45048</v>
       </c>
+      <c r="G10" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="H10" s="5">
+        <v>37</v>
+      </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
@@ -4078,10 +4924,48 @@
       <c r="E11" s="1">
         <v>45061</v>
       </c>
+      <c r="G11" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="H11" s="5">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="G12" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="H12" s="5">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="G13" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="H13" s="5">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="G14" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="H14" s="5">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="G15" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="H15" s="5">
+        <v>230</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId2"/>
+  <pageSetup orientation="portrait" r:id="rId3"/>
 </worksheet>
 </file>
 
@@ -4090,7 +4974,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="R18" sqref="R18"/>
+      <selection activeCell="N20" sqref="N20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>

--- a/stage_1/Charts_Visualization_Basics/Charts_visualization_basics.xlsx
+++ b/stage_1/Charts_Visualization_Basics/Charts_visualization_basics.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC\Desktop\Excel-from-scratch\stage_1\Charts_Visualization_Basics\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{423A2778-40FD-4A74-B49F-DCEA2D793AFA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86E24817-B22B-4751-BCBE-66B036C418EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -780,7 +780,7 @@
         <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
+        <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
@@ -845,7 +845,7 @@
           </c:spPr>
         </c:majorGridlines>
         <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
+        <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
@@ -880,37 +880,6 @@
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
-    <c:legend>
-      <c:legendPos val="r"/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
@@ -937,7 +906,6 @@
         <c14:dropZoneFilter val="1"/>
         <c14:dropZoneCategories val="1"/>
         <c14:dropZoneData val="1"/>
-        <c14:dropZoneSeries val="1"/>
       </c14:pivotOptions>
     </c:ext>
     <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{E28EC0CA-F0BB-4C9C-879D-F8772B89E7AC}">
@@ -2758,15 +2726,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>317500</xdr:colOff>
+      <xdr:colOff>273050</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>50800</xdr:rowOff>
+      <xdr:rowOff>171450</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>292100</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
+      <xdr:colOff>247650</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>50800</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -4974,7 +4942,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="N20" sqref="N20"/>
+      <selection activeCell="J19" sqref="J19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
